--- a/data/state_election_results/tennessee_president.xlsx
+++ b/data/state_election_results/tennessee_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DBBB9F-D8E4-1E40-90A3-BB49FF994590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FB434A-9E14-C248-BC8D-1076436DC21D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="5200" windowWidth="25640" windowHeight="14440" xr2:uid="{B0A2A4AF-EE21-8A44-892E-33A14122F3E6}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>trump.votes</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>Wilson</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -341,7 +341,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -384,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,32 +701,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A49D9B-D8A0-7F42-AF65-4CAE332F4A4D}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>23163</v>
@@ -743,7 +741,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>14317</v>
@@ -760,7 +758,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>5661</v>
@@ -777,7 +775,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>4725</v>
@@ -794,7 +792,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>47195</v>
@@ -811,7 +809,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>35204</v>
@@ -828,7 +826,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>12330</v>
@@ -845,7 +843,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>5190</v>
@@ -862,7 +860,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>9194</v>
@@ -879,7 +877,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>19574</v>
@@ -896,7 +894,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>14328</v>
@@ -913,7 +911,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>5951</v>
@@ -930,7 +928,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>10598</v>
@@ -947,7 +945,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>2733</v>
@@ -964,7 +962,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>12128</v>
@@ -981,7 +979,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>17863</v>
@@ -998,7 +996,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>4673</v>
@@ -1015,7 +1013,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>25167</v>
@@ -1032,7 +1030,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>99415</v>
@@ -1049,7 +1047,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>4229</v>
@@ -1066,7 +1064,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>6663</v>
@@ -1083,7 +1081,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>17643</v>
@@ -1100,7 +1098,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>11766</v>
@@ -1117,7 +1115,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>15661</v>
@@ -1134,7 +1132,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>7403</v>
@@ -1151,7 +1149,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>13977</v>
@@ -1168,7 +1166,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>16259</v>
@@ -1185,7 +1183,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>9783</v>
@@ -1202,7 +1200,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
         <v>8559</v>
@@ -1219,7 +1217,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>22185</v>
@@ -1236,7 +1234,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>4795</v>
@@ -1253,7 +1251,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <v>18789</v>
@@ -1270,7 +1268,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
         <v>91991</v>
@@ -1287,7 +1285,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
         <v>2372</v>
@@ -1304,7 +1302,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
         <v>5760</v>
@@ -1321,7 +1319,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
         <v>9556</v>
@@ -1338,7 +1336,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>20372</v>
@@ -1355,7 +1353,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
         <v>3338</v>
@@ -1372,7 +1370,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2">
         <v>9797</v>
@@ -1389,7 +1387,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>11230</v>
@@ -1406,7 +1404,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
         <v>7577</v>
@@ -1423,7 +1421,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
         <v>2715</v>
@@ -1440,7 +1438,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2">
         <v>6116</v>
@@ -1457,7 +1455,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2">
         <v>4106</v>
@@ -1474,7 +1472,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
         <v>18609</v>
@@ -1491,7 +1489,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2">
         <v>6466</v>
@@ -1508,7 +1506,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
         <v>124339</v>
@@ -1525,7 +1523,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
         <v>1492</v>
@@ -1542,7 +1540,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
         <v>5672</v>
@@ -1559,7 +1557,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
         <v>15334</v>
@@ -1576,7 +1574,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
         <v>4473</v>
@@ -1593,7 +1591,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
         <v>12258</v>
@@ -1610,7 +1608,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
         <v>21684</v>
@@ -1627,7 +1625,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2">
         <v>18175</v>
@@ -1644,7 +1642,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2">
         <v>9085</v>
@@ -1661,7 +1659,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="2">
         <v>8095</v>
@@ -1678,7 +1676,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="2">
         <v>23922</v>
@@ -1695,7 +1693,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2">
         <v>9873</v>
@@ -1712,7 +1710,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2">
         <v>11029</v>
@@ -1729,7 +1727,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2">
         <v>31408</v>
@@ -1746,7 +1744,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
         <v>4464</v>
@@ -1763,7 +1761,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2">
         <v>16742</v>
@@ -1780,7 +1778,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="2">
         <v>42156</v>
@@ -1797,7 +1795,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2">
         <v>2888</v>
@@ -1814,7 +1812,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2">
         <v>6926</v>
@@ -1831,7 +1829,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2">
         <v>10790</v>
@@ -1848,7 +1846,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2">
         <v>7911</v>
@@ -1865,7 +1863,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2">
         <v>2775</v>
@@ -1882,7 +1880,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="2">
         <v>2373</v>
@@ -1899,7 +1897,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2">
         <v>6792</v>
@@ -1916,7 +1914,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2">
         <v>23694</v>
@@ -1933,7 +1931,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2">
         <v>11031</v>
@@ -1950,7 +1948,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2">
         <v>19195</v>
@@ -1967,7 +1965,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2">
         <v>24535</v>
@@ -1984,7 +1982,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2">
         <v>81373</v>
@@ -2001,7 +1999,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2">
         <v>8004</v>
@@ -2018,7 +2016,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2">
         <v>5846</v>
@@ -2035,7 +2033,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2">
         <v>33783</v>
@@ -2052,7 +2050,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2">
         <v>7124</v>
@@ -2069,7 +2067,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2">
         <v>4942</v>
@@ -2086,7 +2084,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2">
         <v>55774</v>
@@ -2103,7 +2101,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2">
         <v>63404</v>
@@ -2120,7 +2118,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2">
         <v>20063</v>
@@ -2137,7 +2135,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2">
         <v>2930</v>
@@ -2154,7 +2152,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2">
         <v>6593</v>
@@ -2171,7 +2169,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2">
         <v>6777</v>
@@ -2188,7 +2186,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2">
         <v>2338</v>
@@ -2205,7 +2203,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2">
         <v>12323</v>
@@ -2222,7 +2220,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2">
         <v>40120</v>
@@ -2239,7 +2237,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2">
         <v>5795</v>
@@ -2256,7 +2254,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2">
         <v>10382</v>
@@ -2273,7 +2271,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2">
         <v>9587</v>
@@ -2290,7 +2288,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2">
         <v>86469</v>
@@ -2307,7 +2305,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2">
         <v>50149</v>
@@ -2324,7 +2322,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2">
         <v>129543</v>
